--- a/biology/Histoire de la zoologie et de la botanique/Jacob_Cornelis_Matthieu_Radermacher/Jacob_Cornelis_Matthieu_Radermacher.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jacob_Cornelis_Matthieu_Radermacher/Jacob_Cornelis_Matthieu_Radermacher.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacob Cornelis Matthieu Radermacher (1741- 24 décembre 1783) est un botaniste et auteur néerlandais.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacob Radermacher est un naturaliste et un officier de la Verenigde Oostindische Compagnie, la Compagnie néerlandaise des Indes orientales. Son père Jacob Cornelis Radermacher (1700-1748) était le trésorier-général du prince d'Orange, tandis que son oncle et son neveu étaient membres de la direction de la VOC.
 En 1757, à seulement 16 ans, il voyage jusqu'en Indonésie pour travailler comme négociant pour la VOC. Il se marie le 21 mai 1761 avec Margaretha Sophia Verijssel. En 1762, il crée la première loge maçonnique d'Asie à Batavia.
